--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Неликвид млн тенге</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Клиентов на артикул</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -568,6 +573,67 @@
       </c>
       <c r="Q2" t="n">
         <v>12.12669718286228</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.682819383259912</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>80</v>
+      </c>
+      <c r="G3" t="n">
+        <v>68</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>240</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29</v>
+      </c>
+      <c r="M3" t="n">
+        <v>57</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48.74877619777028</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.906059584367242</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11.47285938902699</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.663755458515284</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,64 @@
         <v>5.663755458515284</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>229</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>55</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26</v>
+      </c>
+      <c r="O4" t="n">
+        <v>48.61862072069524</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.841459129695507</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.435629302752974</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.888392857142857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,122 @@
         <v>5.888392857142857</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>70</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>232</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>54</v>
+      </c>
+      <c r="N5" t="n">
+        <v>29</v>
+      </c>
+      <c r="O5" t="n">
+        <v>48.03343473295858</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.73605603760653</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.216616827314476</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.77995642701525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81</v>
+      </c>
+      <c r="G6" t="n">
+        <v>71</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" t="n">
+        <v>83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>229</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>52</v>
+      </c>
+      <c r="N6" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>46.18471184535644</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.532002341863839</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.146708820663789</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.864035087719298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +810,122 @@
         <v>5.864035087719298</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>231</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" t="n">
+        <v>48</v>
+      </c>
+      <c r="N7" t="n">
+        <v>35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>46.40635930623447</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.820660709487027</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.073373087506184</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.935555555555555</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>142</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>224</v>
+      </c>
+      <c r="L8" t="n">
+        <v>37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N8" t="n">
+        <v>35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>46.55936497009368</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.467309103805798</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.976797434489851</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.977678571428571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,16 @@
           <t>Клиентов на артикул</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Эффективность запасов</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Эффективность ассортимента</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +587,12 @@
       <c r="R2" t="n">
         <v>5.682819383259912</v>
       </c>
+      <c r="S2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="T2" t="n">
+        <v>42.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -635,6 +651,12 @@
       <c r="R3" t="n">
         <v>5.663755458515284</v>
       </c>
+      <c r="S3" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>40.77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -693,6 +715,12 @@
       <c r="R4" t="n">
         <v>5.888392857142857</v>
       </c>
+      <c r="S4" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="T4" t="n">
+        <v>44.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -751,6 +779,12 @@
       <c r="R5" t="n">
         <v>5.77995642701525</v>
       </c>
+      <c r="S5" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="T5" t="n">
+        <v>41.81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -809,6 +843,12 @@
       <c r="R6" t="n">
         <v>5.864035087719298</v>
       </c>
+      <c r="S6" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="T6" t="n">
+        <v>41.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -867,6 +907,12 @@
       <c r="R7" t="n">
         <v>5.935555555555555</v>
       </c>
+      <c r="S7" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="T7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -924,6 +970,12 @@
       </c>
       <c r="R8" t="n">
         <v>5.977678571428571</v>
+      </c>
+      <c r="S8" t="n">
+        <v>23.86934673366834</v>
+      </c>
+      <c r="T8" t="n">
+        <v>40.54931729362601</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,6 +978,70 @@
         <v>40.54931729362601</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n">
+        <v>142</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" t="n">
+        <v>72</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>225</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>49</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39</v>
+      </c>
+      <c r="O9" t="n">
+        <v>42.70081658735391</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.185096130610146</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.029815106404278</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.111607142857143</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25.56390977443609</v>
+      </c>
+      <c r="T9" t="n">
+        <v>40.66327531828411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,70 @@
         <v>40.66327531828411</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>143</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49</v>
+      </c>
+      <c r="F10" t="n">
+        <v>79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+      <c r="I10" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>226</v>
+      </c>
+      <c r="L10" t="n">
+        <v>35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>49</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>41.35388420226328</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.301038186342608</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.023819182324007</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.136160714285714</v>
+      </c>
+      <c r="S10" t="n">
+        <v>24.56140350877193</v>
+      </c>
+      <c r="T10" t="n">
+        <v>41.83665350660577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L10" t="n">
         <v>35</v>
@@ -1085,25 +1085,281 @@
         <v>49</v>
       </c>
       <c r="N10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>41.35388420226328</v>
+        <v>41.35372684232989</v>
       </c>
       <c r="P10" t="n">
         <v>2.301038186342608</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.023819182324007</v>
+        <v>6.026709100600459</v>
       </c>
       <c r="R10" t="n">
         <v>6.136160714285714</v>
       </c>
       <c r="S10" t="n">
-        <v>24.56140350877193</v>
+        <v>24.31077694235589</v>
       </c>
       <c r="T10" t="n">
         <v>41.83665350660577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>144</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49</v>
+      </c>
+      <c r="F11" t="n">
+        <v>82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>67</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>217</v>
+      </c>
+      <c r="L11" t="n">
+        <v>32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>43</v>
+      </c>
+      <c r="O11" t="n">
+        <v>41.53944403707802</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.387008726307925</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.814819117076908</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.301339285714286</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25.06265664160401</v>
+      </c>
+      <c r="T11" t="n">
+        <v>42.94530030346557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>77</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>217</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>50</v>
+      </c>
+      <c r="N12" t="n">
+        <v>42</v>
+      </c>
+      <c r="O12" t="n">
+        <v>42.5916836986554</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.35274976649236</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.610649318747921</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.330357142857143</v>
+      </c>
+      <c r="S12" t="n">
+        <v>24.62311557788945</v>
+      </c>
+      <c r="T12" t="n">
+        <v>40.52289298690733</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>51</v>
+      </c>
+      <c r="F13" t="n">
+        <v>82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" t="n">
+        <v>88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>28</v>
+      </c>
+      <c r="K13" t="n">
+        <v>210</v>
+      </c>
+      <c r="L13" t="n">
+        <v>29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>51</v>
+      </c>
+      <c r="N13" t="n">
+        <v>43</v>
+      </c>
+      <c r="O13" t="n">
+        <v>41.20417816088311</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.84324928423978</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.880206157254344</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.510022271714922</v>
+      </c>
+      <c r="S13" t="n">
+        <v>25.12562814070352</v>
+      </c>
+      <c r="T13" t="n">
+        <v>41.86913817164112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>154</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>47</v>
+      </c>
+      <c r="F14" t="n">
+        <v>82</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29</v>
+      </c>
+      <c r="K14" t="n">
+        <v>209</v>
+      </c>
+      <c r="L14" t="n">
+        <v>27</v>
+      </c>
+      <c r="M14" t="n">
+        <v>47</v>
+      </c>
+      <c r="N14" t="n">
+        <v>41</v>
+      </c>
+      <c r="O14" t="n">
+        <v>40.64033013900238</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.257196381542651</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.897779659210252</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.53932584269663</v>
+      </c>
+      <c r="S14" t="n">
+        <v>24.37185929648241</v>
+      </c>
+      <c r="T14" t="n">
+        <v>41.93265471244218</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,6 +1362,134 @@
         <v>41.93265471244218</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>159</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38</v>
+      </c>
+      <c r="E15" t="n">
+        <v>44</v>
+      </c>
+      <c r="F15" t="n">
+        <v>80</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="n">
+        <v>95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30</v>
+      </c>
+      <c r="K15" t="n">
+        <v>203</v>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>44</v>
+      </c>
+      <c r="N15" t="n">
+        <v>41</v>
+      </c>
+      <c r="O15" t="n">
+        <v>41.65891245496407</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.726518952030974</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.798365839218706</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.562358276643991</v>
+      </c>
+      <c r="S15" t="n">
+        <v>24.93702770780856</v>
+      </c>
+      <c r="T15" t="n">
+        <v>41.02338884890666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>158</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>52</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>34</v>
+      </c>
+      <c r="K16" t="n">
+        <v>224</v>
+      </c>
+      <c r="L16" t="n">
+        <v>31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>39</v>
+      </c>
+      <c r="N16" t="n">
+        <v>38</v>
+      </c>
+      <c r="O16" t="n">
+        <v>42.23140828639086</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.198159684706655</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.281394833727012</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.613636363636363</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25.6857855361596</v>
+      </c>
+      <c r="T16" t="n">
+        <v>40.20236758647756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,6 +1490,134 @@
         <v>40.20236758647756</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>53</v>
+      </c>
+      <c r="C17" t="n">
+        <v>157</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39</v>
+      </c>
+      <c r="E17" t="n">
+        <v>39</v>
+      </c>
+      <c r="F17" t="n">
+        <v>79</v>
+      </c>
+      <c r="G17" t="n">
+        <v>53</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" t="n">
+        <v>72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>226</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>38</v>
+      </c>
+      <c r="N17" t="n">
+        <v>38</v>
+      </c>
+      <c r="O17" t="n">
+        <v>42.05439243127995</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.169452639954245</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.537194291887642</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.55656108597285</v>
+      </c>
+      <c r="S17" t="n">
+        <v>26.23762376237624</v>
+      </c>
+      <c r="T17" t="n">
+        <v>39.95988851499233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>160</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>79</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40</v>
+      </c>
+      <c r="K18" t="n">
+        <v>231</v>
+      </c>
+      <c r="L18" t="n">
+        <v>45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>37</v>
+      </c>
+      <c r="N18" t="n">
+        <v>31</v>
+      </c>
+      <c r="O18" t="n">
+        <v>42.07068534465061</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5994947830335035</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.967775078789087</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.589164785553048</v>
+      </c>
+      <c r="S18" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="T18" t="n">
+        <v>39.28836912869107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,6 +1618,134 @@
         <v>39.28836912869107</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n">
+        <v>160</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47</v>
+      </c>
+      <c r="F19" t="n">
+        <v>79</v>
+      </c>
+      <c r="G19" t="n">
+        <v>52</v>
+      </c>
+      <c r="H19" t="n">
+        <v>23</v>
+      </c>
+      <c r="I19" t="n">
+        <v>59</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38</v>
+      </c>
+      <c r="K19" t="n">
+        <v>222</v>
+      </c>
+      <c r="L19" t="n">
+        <v>43</v>
+      </c>
+      <c r="M19" t="n">
+        <v>46</v>
+      </c>
+      <c r="N19" t="n">
+        <v>34</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40.69016786907001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.348838992905974</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.497797132380368</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6.633484162895928</v>
+      </c>
+      <c r="S19" t="n">
+        <v>29.04040404040404</v>
+      </c>
+      <c r="T19" t="n">
+        <v>42.77970397444668</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>35</v>
+      </c>
+      <c r="F20" t="n">
+        <v>78</v>
+      </c>
+      <c r="G20" t="n">
+        <v>44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>223</v>
+      </c>
+      <c r="L20" t="n">
+        <v>43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>34</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37</v>
+      </c>
+      <c r="O20" t="n">
+        <v>39.09399738358086</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.435854345679135</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6.235811183950216</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.544811320754717</v>
+      </c>
+      <c r="S20" t="n">
+        <v>28.71794871794872</v>
+      </c>
+      <c r="T20" t="n">
+        <v>41.7606448880063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,6 +1746,70 @@
         <v>41.7606448880063</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>168</v>
+      </c>
+      <c r="D21" t="n">
+        <v>39</v>
+      </c>
+      <c r="E21" t="n">
+        <v>34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>76</v>
+      </c>
+      <c r="G21" t="n">
+        <v>44</v>
+      </c>
+      <c r="H21" t="n">
+        <v>22</v>
+      </c>
+      <c r="I21" t="n">
+        <v>44</v>
+      </c>
+      <c r="J21" t="n">
+        <v>38</v>
+      </c>
+      <c r="K21" t="n">
+        <v>233</v>
+      </c>
+      <c r="L21" t="n">
+        <v>53</v>
+      </c>
+      <c r="M21" t="n">
+        <v>31</v>
+      </c>
+      <c r="N21" t="n">
+        <v>27</v>
+      </c>
+      <c r="O21" t="n">
+        <v>39.42287106806474</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.842911508182544</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.407750658589586</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.673708920187793</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29.87341772151899</v>
+      </c>
+      <c r="T21" t="n">
+        <v>41.28791559605175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,518 @@
         <v>41.28791559605175</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>165</v>
+      </c>
+      <c r="D22" t="n">
+        <v>36</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38</v>
+      </c>
+      <c r="F22" t="n">
+        <v>78</v>
+      </c>
+      <c r="G22" t="n">
+        <v>47</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>39</v>
+      </c>
+      <c r="K22" t="n">
+        <v>231</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50</v>
+      </c>
+      <c r="M22" t="n">
+        <v>36</v>
+      </c>
+      <c r="N22" t="n">
+        <v>26</v>
+      </c>
+      <c r="O22" t="n">
+        <v>38.89273923706588</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.048223844854369</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5.676073990190313</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.612676056338028</v>
+      </c>
+      <c r="S22" t="n">
+        <v>29.48717948717949</v>
+      </c>
+      <c r="T22" t="n">
+        <v>43.07470363944447</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>175</v>
+      </c>
+      <c r="D23" t="n">
+        <v>35</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>77</v>
+      </c>
+      <c r="G23" t="n">
+        <v>38</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I23" t="n">
+        <v>49</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>226</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>37</v>
+      </c>
+      <c r="N23" t="n">
+        <v>28</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.83096505013389</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.116080463109354</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5.752353197171549</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.645539906103286</v>
+      </c>
+      <c r="S23" t="n">
+        <v>29.30591259640103</v>
+      </c>
+      <c r="T23" t="n">
+        <v>42.00621925254038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>153</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F24" t="n">
+        <v>95</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+      <c r="I24" t="n">
+        <v>56</v>
+      </c>
+      <c r="J24" t="n">
+        <v>35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>224</v>
+      </c>
+      <c r="L24" t="n">
+        <v>48</v>
+      </c>
+      <c r="M24" t="n">
+        <v>29</v>
+      </c>
+      <c r="N24" t="n">
+        <v>28</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.92330202922507</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.338518167156783</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4.948007300485597</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.788095238095238</v>
+      </c>
+      <c r="S24" t="n">
+        <v>28.38874680306905</v>
+      </c>
+      <c r="T24" t="n">
+        <v>44.03039421294744</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>168</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32</v>
+      </c>
+      <c r="F25" t="n">
+        <v>77</v>
+      </c>
+      <c r="G25" t="n">
+        <v>37</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>39</v>
+      </c>
+      <c r="J25" t="n">
+        <v>46</v>
+      </c>
+      <c r="K25" t="n">
+        <v>227</v>
+      </c>
+      <c r="L25" t="n">
+        <v>49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>31</v>
+      </c>
+      <c r="N25" t="n">
+        <v>29</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.20959642260528</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9253461075449328</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5.675497890394929</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6.814726840855107</v>
+      </c>
+      <c r="S25" t="n">
+        <v>31.79487179487179</v>
+      </c>
+      <c r="T25" t="n">
+        <v>40.27979543310472</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>170</v>
+      </c>
+      <c r="D26" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" t="n">
+        <v>29</v>
+      </c>
+      <c r="F26" t="n">
+        <v>76</v>
+      </c>
+      <c r="G26" t="n">
+        <v>39</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" t="n">
+        <v>47</v>
+      </c>
+      <c r="K26" t="n">
+        <v>227</v>
+      </c>
+      <c r="L26" t="n">
+        <v>44</v>
+      </c>
+      <c r="M26" t="n">
+        <v>28</v>
+      </c>
+      <c r="N26" t="n">
+        <v>33</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.1031383229018</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.144726615716765</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.627075591160938</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6.856801909307876</v>
+      </c>
+      <c r="S26" t="n">
+        <v>31.71355498721228</v>
+      </c>
+      <c r="T26" t="n">
+        <v>40.67650062490154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>171</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30</v>
+      </c>
+      <c r="F27" t="n">
+        <v>76</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39</v>
+      </c>
+      <c r="H27" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42</v>
+      </c>
+      <c r="J27" t="n">
+        <v>41</v>
+      </c>
+      <c r="K27" t="n">
+        <v>226</v>
+      </c>
+      <c r="L27" t="n">
+        <v>48</v>
+      </c>
+      <c r="M27" t="n">
+        <v>29</v>
+      </c>
+      <c r="N27" t="n">
+        <v>30</v>
+      </c>
+      <c r="O27" t="n">
+        <v>36.64644914231332</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.834862749798482</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5.597600515337605</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6.894230769230769</v>
+      </c>
+      <c r="S27" t="n">
+        <v>30.74935400516796</v>
+      </c>
+      <c r="T27" t="n">
+        <v>41.16829212376044</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>55</v>
+      </c>
+      <c r="C28" t="n">
+        <v>165</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="n">
+        <v>77</v>
+      </c>
+      <c r="G28" t="n">
+        <v>41</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22</v>
+      </c>
+      <c r="I28" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43</v>
+      </c>
+      <c r="K28" t="n">
+        <v>221</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" t="n">
+        <v>28</v>
+      </c>
+      <c r="N28" t="n">
+        <v>29</v>
+      </c>
+      <c r="O28" t="n">
+        <v>35.9849598749709</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.998517191504086</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5.738238806661534</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6.971223021582734</v>
+      </c>
+      <c r="S28" t="n">
+        <v>31.36246786632391</v>
+      </c>
+      <c r="T28" t="n">
+        <v>40.24318539274539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>57</v>
+      </c>
+      <c r="C29" t="n">
+        <v>149</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24</v>
+      </c>
+      <c r="F29" t="n">
+        <v>93</v>
+      </c>
+      <c r="G29" t="n">
+        <v>51</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>43</v>
+      </c>
+      <c r="K29" t="n">
+        <v>236</v>
+      </c>
+      <c r="L29" t="n">
+        <v>51</v>
+      </c>
+      <c r="M29" t="n">
+        <v>24</v>
+      </c>
+      <c r="N29" t="n">
+        <v>29</v>
+      </c>
+      <c r="O29" t="n">
+        <v>35.74897227336195</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.573250124531267</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5.518094099030988</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6.768691588785047</v>
+      </c>
+      <c r="S29" t="n">
+        <v>30.44554455445545</v>
+      </c>
+      <c r="T29" t="n">
+        <v>44.43816713893185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,6 +2322,326 @@
         <v>44.43816713893185</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>190</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>77</v>
+      </c>
+      <c r="G30" t="n">
+        <v>38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23</v>
+      </c>
+      <c r="I30" t="n">
+        <v>66</v>
+      </c>
+      <c r="J30" t="n">
+        <v>49</v>
+      </c>
+      <c r="K30" t="n">
+        <v>208</v>
+      </c>
+      <c r="L30" t="n">
+        <v>59</v>
+      </c>
+      <c r="M30" t="n">
+        <v>22</v>
+      </c>
+      <c r="N30" t="n">
+        <v>25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>36.24514090626913</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.918158662783087</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.518256777407355</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6.825174825174825</v>
+      </c>
+      <c r="S30" t="n">
+        <v>32.67813267813268</v>
+      </c>
+      <c r="T30" t="n">
+        <v>42.80653435287675</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" t="n">
+        <v>192</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26</v>
+      </c>
+      <c r="F31" t="n">
+        <v>75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>39</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23</v>
+      </c>
+      <c r="I31" t="n">
+        <v>69</v>
+      </c>
+      <c r="J31" t="n">
+        <v>46</v>
+      </c>
+      <c r="K31" t="n">
+        <v>204</v>
+      </c>
+      <c r="L31" t="n">
+        <v>63</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20</v>
+      </c>
+      <c r="N31" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>35.64744019369684</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9601467417864651</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5.513930203619198</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6.800936768149882</v>
+      </c>
+      <c r="S31" t="n">
+        <v>32.92383292383293</v>
+      </c>
+      <c r="T31" t="n">
+        <v>43.02587617749472</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>57</v>
+      </c>
+      <c r="C32" t="n">
+        <v>172</v>
+      </c>
+      <c r="D32" t="n">
+        <v>39</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23</v>
+      </c>
+      <c r="F32" t="n">
+        <v>74</v>
+      </c>
+      <c r="G32" t="n">
+        <v>37</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>73</v>
+      </c>
+      <c r="J32" t="n">
+        <v>46</v>
+      </c>
+      <c r="K32" t="n">
+        <v>202</v>
+      </c>
+      <c r="L32" t="n">
+        <v>60</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20</v>
+      </c>
+      <c r="N32" t="n">
+        <v>26</v>
+      </c>
+      <c r="O32" t="n">
+        <v>35.61254422907685</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.6457759456407824</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.41379401522476</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6.836065573770492</v>
+      </c>
+      <c r="S32" t="n">
+        <v>32.43243243243244</v>
+      </c>
+      <c r="T32" t="n">
+        <v>38.08639640188593</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57</v>
+      </c>
+      <c r="C33" t="n">
+        <v>171</v>
+      </c>
+      <c r="D33" t="n">
+        <v>38</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>41</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25</v>
+      </c>
+      <c r="I33" t="n">
+        <v>82</v>
+      </c>
+      <c r="J33" t="n">
+        <v>45</v>
+      </c>
+      <c r="K33" t="n">
+        <v>200</v>
+      </c>
+      <c r="L33" t="n">
+        <v>57</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21</v>
+      </c>
+      <c r="N33" t="n">
+        <v>24</v>
+      </c>
+      <c r="O33" t="n">
+        <v>35.32025979819606</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.232628336262823</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5.313182519246792</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6.771561771561772</v>
+      </c>
+      <c r="S33" t="n">
+        <v>30.88235294117647</v>
+      </c>
+      <c r="T33" t="n">
+        <v>38.66565109978848</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>58</v>
+      </c>
+      <c r="C34" t="n">
+        <v>157</v>
+      </c>
+      <c r="D34" t="n">
+        <v>37</v>
+      </c>
+      <c r="E34" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" t="n">
+        <v>92</v>
+      </c>
+      <c r="G34" t="n">
+        <v>39</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>82</v>
+      </c>
+      <c r="J34" t="n">
+        <v>44</v>
+      </c>
+      <c r="K34" t="n">
+        <v>201</v>
+      </c>
+      <c r="L34" t="n">
+        <v>52</v>
+      </c>
+      <c r="M34" t="n">
+        <v>20</v>
+      </c>
+      <c r="N34" t="n">
+        <v>30</v>
+      </c>
+      <c r="O34" t="n">
+        <v>35.47592853857863</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.705075162622052</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.144103763544248</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.731934731934732</v>
+      </c>
+      <c r="S34" t="n">
+        <v>30.80684596577017</v>
+      </c>
+      <c r="T34" t="n">
+        <v>41.49786250083233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2642,6 +2642,134 @@
         <v>41.49786250083233</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>58</v>
+      </c>
+      <c r="C35" t="n">
+        <v>167</v>
+      </c>
+      <c r="D35" t="n">
+        <v>36</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>78</v>
+      </c>
+      <c r="G35" t="n">
+        <v>43</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>81</v>
+      </c>
+      <c r="J35" t="n">
+        <v>44</v>
+      </c>
+      <c r="K35" t="n">
+        <v>201</v>
+      </c>
+      <c r="L35" t="n">
+        <v>55</v>
+      </c>
+      <c r="M35" t="n">
+        <v>21</v>
+      </c>
+      <c r="N35" t="n">
+        <v>27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>35.89047303266747</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.375603121078543</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5.245405600099205</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6.801864801864802</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30.88235294117647</v>
+      </c>
+      <c r="T35" t="n">
+        <v>39.38137744729995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>165</v>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" t="n">
+        <v>24</v>
+      </c>
+      <c r="F36" t="n">
+        <v>81</v>
+      </c>
+      <c r="G36" t="n">
+        <v>41</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25</v>
+      </c>
+      <c r="I36" t="n">
+        <v>82</v>
+      </c>
+      <c r="J36" t="n">
+        <v>39</v>
+      </c>
+      <c r="K36" t="n">
+        <v>198</v>
+      </c>
+      <c r="L36" t="n">
+        <v>52</v>
+      </c>
+      <c r="M36" t="n">
+        <v>24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34</v>
+      </c>
+      <c r="O36" t="n">
+        <v>36.18318791455514</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.433216510220644</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.218104223907462</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6.916083916083916</v>
+      </c>
+      <c r="S36" t="n">
+        <v>30.8641975308642</v>
+      </c>
+      <c r="T36" t="n">
+        <v>39.94391029461465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,6 +2770,134 @@
         <v>39.94391029461465</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>171</v>
+      </c>
+      <c r="D37" t="n">
+        <v>34</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>78</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+      <c r="H37" t="n">
+        <v>24</v>
+      </c>
+      <c r="I37" t="n">
+        <v>89</v>
+      </c>
+      <c r="J37" t="n">
+        <v>46</v>
+      </c>
+      <c r="K37" t="n">
+        <v>196</v>
+      </c>
+      <c r="L37" t="n">
+        <v>43</v>
+      </c>
+      <c r="M37" t="n">
+        <v>23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>32</v>
+      </c>
+      <c r="O37" t="n">
+        <v>36.37885234723659</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.459664499278522</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5.53261427307102</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6.93006993006993</v>
+      </c>
+      <c r="S37" t="n">
+        <v>29.80295566502463</v>
+      </c>
+      <c r="T37" t="n">
+        <v>38.90357698127044</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>60</v>
+      </c>
+      <c r="C38" t="n">
+        <v>161</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>98</v>
+      </c>
+      <c r="G38" t="n">
+        <v>31</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>92</v>
+      </c>
+      <c r="J38" t="n">
+        <v>45</v>
+      </c>
+      <c r="K38" t="n">
+        <v>197</v>
+      </c>
+      <c r="L38" t="n">
+        <v>41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>20</v>
+      </c>
+      <c r="N38" t="n">
+        <v>33</v>
+      </c>
+      <c r="O38" t="n">
+        <v>36.0123664073148</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.041686801675116</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.443030741300825</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7.002336448598131</v>
+      </c>
+      <c r="S38" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="T38" t="n">
+        <v>42.16386488469568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2898,6 +2898,262 @@
         <v>42.16386488469568</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>61</v>
+      </c>
+      <c r="C39" t="n">
+        <v>175</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24</v>
+      </c>
+      <c r="F39" t="n">
+        <v>76</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33</v>
+      </c>
+      <c r="H39" t="n">
+        <v>26</v>
+      </c>
+      <c r="I39" t="n">
+        <v>97</v>
+      </c>
+      <c r="J39" t="n">
+        <v>46</v>
+      </c>
+      <c r="K39" t="n">
+        <v>202</v>
+      </c>
+      <c r="L39" t="n">
+        <v>34</v>
+      </c>
+      <c r="M39" t="n">
+        <v>22</v>
+      </c>
+      <c r="N39" t="n">
+        <v>27</v>
+      </c>
+      <c r="O39" t="n">
+        <v>36.08036376890318</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.444091616647149</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.17857279177733</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7.046728971962617</v>
+      </c>
+      <c r="S39" t="n">
+        <v>26.35467980295567</v>
+      </c>
+      <c r="T39" t="n">
+        <v>38.46131588533762</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>63</v>
+      </c>
+      <c r="C40" t="n">
+        <v>183</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>79</v>
+      </c>
+      <c r="G40" t="n">
+        <v>35</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>101</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37</v>
+      </c>
+      <c r="K40" t="n">
+        <v>193</v>
+      </c>
+      <c r="L40" t="n">
+        <v>41</v>
+      </c>
+      <c r="M40" t="n">
+        <v>25</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28</v>
+      </c>
+      <c r="O40" t="n">
+        <v>36.16121524103394</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.18117736419059</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5.003933315434876</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7.03764705882353</v>
+      </c>
+      <c r="S40" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>41.17712004509698</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>80</v>
+      </c>
+      <c r="C41" t="n">
+        <v>164</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80</v>
+      </c>
+      <c r="G41" t="n">
+        <v>35</v>
+      </c>
+      <c r="H41" t="n">
+        <v>25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>103</v>
+      </c>
+      <c r="J41" t="n">
+        <v>32</v>
+      </c>
+      <c r="K41" t="n">
+        <v>197</v>
+      </c>
+      <c r="L41" t="n">
+        <v>40</v>
+      </c>
+      <c r="M41" t="n">
+        <v>26</v>
+      </c>
+      <c r="N41" t="n">
+        <v>27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>35.89543720239992</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.163625021958434</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.053955396068795</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7.049411764705883</v>
+      </c>
+      <c r="S41" t="n">
+        <v>24.81203007518797</v>
+      </c>
+      <c r="T41" t="n">
+        <v>37.98805213809167</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>82</v>
+      </c>
+      <c r="C42" t="n">
+        <v>165</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19</v>
+      </c>
+      <c r="E42" t="n">
+        <v>29</v>
+      </c>
+      <c r="F42" t="n">
+        <v>80</v>
+      </c>
+      <c r="G42" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24</v>
+      </c>
+      <c r="I42" t="n">
+        <v>99</v>
+      </c>
+      <c r="J42" t="n">
+        <v>26</v>
+      </c>
+      <c r="K42" t="n">
+        <v>205</v>
+      </c>
+      <c r="L42" t="n">
+        <v>47</v>
+      </c>
+      <c r="M42" t="n">
+        <v>29</v>
+      </c>
+      <c r="N42" t="n">
+        <v>23</v>
+      </c>
+      <c r="O42" t="n">
+        <v>35.99885643958343</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.175989046289109</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5.417000295314623</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6.986013986013986</v>
+      </c>
+      <c r="S42" t="n">
+        <v>24</v>
+      </c>
+      <c r="T42" t="n">
+        <v>36.34114873379227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика ШМТ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3154,6 +3154,1094 @@
         <v>36.34114873379227</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>90</v>
+      </c>
+      <c r="C43" t="n">
+        <v>143</v>
+      </c>
+      <c r="D43" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>35</v>
+      </c>
+      <c r="F43" t="n">
+        <v>93</v>
+      </c>
+      <c r="G43" t="n">
+        <v>30</v>
+      </c>
+      <c r="H43" t="n">
+        <v>21</v>
+      </c>
+      <c r="I43" t="n">
+        <v>102</v>
+      </c>
+      <c r="J43" t="n">
+        <v>21</v>
+      </c>
+      <c r="K43" t="n">
+        <v>196</v>
+      </c>
+      <c r="L43" t="n">
+        <v>37</v>
+      </c>
+      <c r="M43" t="n">
+        <v>35</v>
+      </c>
+      <c r="N43" t="n">
+        <v>36</v>
+      </c>
+      <c r="O43" t="n">
+        <v>36.65810666359444</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.046763381026285</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.376794949022718</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7.018735362997658</v>
+      </c>
+      <c r="S43" t="n">
+        <v>23.97959183673469</v>
+      </c>
+      <c r="T43" t="n">
+        <v>36.87581639339508</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>152</v>
+      </c>
+      <c r="D44" t="n">
+        <v>32</v>
+      </c>
+      <c r="E44" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" t="n">
+        <v>81</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34</v>
+      </c>
+      <c r="H44" t="n">
+        <v>25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>88</v>
+      </c>
+      <c r="J44" t="n">
+        <v>31</v>
+      </c>
+      <c r="K44" t="n">
+        <v>227</v>
+      </c>
+      <c r="L44" t="n">
+        <v>38</v>
+      </c>
+      <c r="M44" t="n">
+        <v>25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>36</v>
+      </c>
+      <c r="O44" t="n">
+        <v>36.94338861744791</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.502582673345698</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5.714906355464866</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6.786516853932584</v>
+      </c>
+      <c r="S44" t="n">
+        <v>25</v>
+      </c>
+      <c r="T44" t="n">
+        <v>32.34542195569632</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>87</v>
+      </c>
+      <c r="C45" t="n">
+        <v>144</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" t="n">
+        <v>32</v>
+      </c>
+      <c r="H45" t="n">
+        <v>23</v>
+      </c>
+      <c r="I45" t="n">
+        <v>107</v>
+      </c>
+      <c r="J45" t="n">
+        <v>28</v>
+      </c>
+      <c r="K45" t="n">
+        <v>213</v>
+      </c>
+      <c r="L45" t="n">
+        <v>29</v>
+      </c>
+      <c r="M45" t="n">
+        <v>26</v>
+      </c>
+      <c r="N45" t="n">
+        <v>43</v>
+      </c>
+      <c r="O45" t="n">
+        <v>36.76152357037834</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.846831324799573</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.289952443759291</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6.975336322869955</v>
+      </c>
+      <c r="S45" t="n">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="T45" t="n">
+        <v>36.5331068091875</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>89</v>
+      </c>
+      <c r="C46" t="n">
+        <v>154</v>
+      </c>
+      <c r="D46" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" t="n">
+        <v>32</v>
+      </c>
+      <c r="F46" t="n">
+        <v>85</v>
+      </c>
+      <c r="G46" t="n">
+        <v>31</v>
+      </c>
+      <c r="H46" t="n">
+        <v>24</v>
+      </c>
+      <c r="I46" t="n">
+        <v>109</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21</v>
+      </c>
+      <c r="K46" t="n">
+        <v>227</v>
+      </c>
+      <c r="L46" t="n">
+        <v>30</v>
+      </c>
+      <c r="M46" t="n">
+        <v>29</v>
+      </c>
+      <c r="N46" t="n">
+        <v>29</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37.14013394617965</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.184212005963288</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5.641745459017582</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7.184269662921348</v>
+      </c>
+      <c r="S46" t="n">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="T46" t="n">
+        <v>33.40917400651624</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>92</v>
+      </c>
+      <c r="C47" t="n">
+        <v>137</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" t="n">
+        <v>40</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97</v>
+      </c>
+      <c r="G47" t="n">
+        <v>27</v>
+      </c>
+      <c r="H47" t="n">
+        <v>26</v>
+      </c>
+      <c r="I47" t="n">
+        <v>110</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14</v>
+      </c>
+      <c r="K47" t="n">
+        <v>223</v>
+      </c>
+      <c r="L47" t="n">
+        <v>28</v>
+      </c>
+      <c r="M47" t="n">
+        <v>38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>31</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.20001000935758</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.396792335976129</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.384611100409491</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7.15990990990991</v>
+      </c>
+      <c r="S47" t="n">
+        <v>17.98029556650246</v>
+      </c>
+      <c r="T47" t="n">
+        <v>35.91788494171023</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>91</v>
+      </c>
+      <c r="C48" t="n">
+        <v>151</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>39</v>
+      </c>
+      <c r="F48" t="n">
+        <v>80</v>
+      </c>
+      <c r="G48" t="n">
+        <v>34</v>
+      </c>
+      <c r="H48" t="n">
+        <v>27</v>
+      </c>
+      <c r="I48" t="n">
+        <v>105</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13</v>
+      </c>
+      <c r="K48" t="n">
+        <v>257</v>
+      </c>
+      <c r="L48" t="n">
+        <v>24</v>
+      </c>
+      <c r="M48" t="n">
+        <v>37</v>
+      </c>
+      <c r="N48" t="n">
+        <v>32</v>
+      </c>
+      <c r="O48" t="n">
+        <v>38.01297782127713</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.233086995381476</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>6.198512997914719</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6.927350427350428</v>
+      </c>
+      <c r="S48" t="n">
+        <v>16.0092807424594</v>
+      </c>
+      <c r="T48" t="n">
+        <v>28.96030049708603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>91</v>
+      </c>
+      <c r="C49" t="n">
+        <v>147</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40</v>
+      </c>
+      <c r="E49" t="n">
+        <v>43</v>
+      </c>
+      <c r="F49" t="n">
+        <v>81</v>
+      </c>
+      <c r="G49" t="n">
+        <v>43</v>
+      </c>
+      <c r="H49" t="n">
+        <v>27</v>
+      </c>
+      <c r="I49" t="n">
+        <v>95</v>
+      </c>
+      <c r="J49" t="n">
+        <v>16</v>
+      </c>
+      <c r="K49" t="n">
+        <v>254</v>
+      </c>
+      <c r="L49" t="n">
+        <v>38</v>
+      </c>
+      <c r="M49" t="n">
+        <v>40</v>
+      </c>
+      <c r="N49" t="n">
+        <v>29</v>
+      </c>
+      <c r="O49" t="n">
+        <v>38.48322270306677</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.529159020533857</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>10.56767444586934</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6.796610169491525</v>
+      </c>
+      <c r="S49" t="n">
+        <v>19.21296296296296</v>
+      </c>
+      <c r="T49" t="n">
+        <v>30.40726756440534</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>91</v>
+      </c>
+      <c r="C50" t="n">
+        <v>148</v>
+      </c>
+      <c r="D50" t="n">
+        <v>34</v>
+      </c>
+      <c r="E50" t="n">
+        <v>43</v>
+      </c>
+      <c r="F50" t="n">
+        <v>81</v>
+      </c>
+      <c r="G50" t="n">
+        <v>46</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29</v>
+      </c>
+      <c r="I50" t="n">
+        <v>103</v>
+      </c>
+      <c r="J50" t="n">
+        <v>17</v>
+      </c>
+      <c r="K50" t="n">
+        <v>247</v>
+      </c>
+      <c r="L50" t="n">
+        <v>35</v>
+      </c>
+      <c r="M50" t="n">
+        <v>40</v>
+      </c>
+      <c r="N50" t="n">
+        <v>30</v>
+      </c>
+      <c r="O50" t="n">
+        <v>37.08648965131203</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4.600858050663117</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5.575129804206651</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6.832627118644067</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18.98148148148148</v>
+      </c>
+      <c r="T50" t="n">
+        <v>32.42707484888034</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>92</v>
+      </c>
+      <c r="C51" t="n">
+        <v>137</v>
+      </c>
+      <c r="D51" t="n">
+        <v>33</v>
+      </c>
+      <c r="E51" t="n">
+        <v>43</v>
+      </c>
+      <c r="F51" t="n">
+        <v>96</v>
+      </c>
+      <c r="G51" t="n">
+        <v>43</v>
+      </c>
+      <c r="H51" t="n">
+        <v>28</v>
+      </c>
+      <c r="I51" t="n">
+        <v>101</v>
+      </c>
+      <c r="J51" t="n">
+        <v>18</v>
+      </c>
+      <c r="K51" t="n">
+        <v>248</v>
+      </c>
+      <c r="L51" t="n">
+        <v>32</v>
+      </c>
+      <c r="M51" t="n">
+        <v>41</v>
+      </c>
+      <c r="N51" t="n">
+        <v>32</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.48861746061361</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4.176352984909112</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5.435106976251747</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6.809322033898305</v>
+      </c>
+      <c r="S51" t="n">
+        <v>19.02552204176334</v>
+      </c>
+      <c r="T51" t="n">
+        <v>35.02576160666233</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>95</v>
+      </c>
+      <c r="C52" t="n">
+        <v>148</v>
+      </c>
+      <c r="D52" t="n">
+        <v>36</v>
+      </c>
+      <c r="E52" t="n">
+        <v>44</v>
+      </c>
+      <c r="F52" t="n">
+        <v>77</v>
+      </c>
+      <c r="G52" t="n">
+        <v>49</v>
+      </c>
+      <c r="H52" t="n">
+        <v>28</v>
+      </c>
+      <c r="I52" t="n">
+        <v>83</v>
+      </c>
+      <c r="J52" t="n">
+        <v>19</v>
+      </c>
+      <c r="K52" t="n">
+        <v>268</v>
+      </c>
+      <c r="L52" t="n">
+        <v>35</v>
+      </c>
+      <c r="M52" t="n">
+        <v>41</v>
+      </c>
+      <c r="N52" t="n">
+        <v>31</v>
+      </c>
+      <c r="O52" t="n">
+        <v>37.42318089548335</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.660095091997834</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>6.167564316006929</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6.744234800838575</v>
+      </c>
+      <c r="S52" t="n">
+        <v>19.4954128440367</v>
+      </c>
+      <c r="T52" t="n">
+        <v>30.15174415421092</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>94</v>
+      </c>
+      <c r="C53" t="n">
+        <v>154</v>
+      </c>
+      <c r="D53" t="n">
+        <v>35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>45</v>
+      </c>
+      <c r="F53" t="n">
+        <v>79</v>
+      </c>
+      <c r="G53" t="n">
+        <v>41</v>
+      </c>
+      <c r="H53" t="n">
+        <v>28</v>
+      </c>
+      <c r="I53" t="n">
+        <v>85</v>
+      </c>
+      <c r="J53" t="n">
+        <v>21</v>
+      </c>
+      <c r="K53" t="n">
+        <v>261</v>
+      </c>
+      <c r="L53" t="n">
+        <v>37</v>
+      </c>
+      <c r="M53" t="n">
+        <v>42</v>
+      </c>
+      <c r="N53" t="n">
+        <v>30</v>
+      </c>
+      <c r="O53" t="n">
+        <v>40.04578621609303</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.129282659965742</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>6.041754393053692</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.741596638655462</v>
+      </c>
+      <c r="S53" t="n">
+        <v>20.27649769585253</v>
+      </c>
+      <c r="T53" t="n">
+        <v>30.87565770162297</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>94</v>
+      </c>
+      <c r="C54" t="n">
+        <v>152</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45</v>
+      </c>
+      <c r="F54" t="n">
+        <v>80</v>
+      </c>
+      <c r="G54" t="n">
+        <v>44</v>
+      </c>
+      <c r="H54" t="n">
+        <v>28</v>
+      </c>
+      <c r="I54" t="n">
+        <v>91</v>
+      </c>
+      <c r="J54" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" t="n">
+        <v>257</v>
+      </c>
+      <c r="L54" t="n">
+        <v>33</v>
+      </c>
+      <c r="M54" t="n">
+        <v>43</v>
+      </c>
+      <c r="N54" t="n">
+        <v>31</v>
+      </c>
+      <c r="O54" t="n">
+        <v>41.43981709896353</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.191048146645236</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.906648316160528</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6.772631578947369</v>
+      </c>
+      <c r="S54" t="n">
+        <v>19.44444444444445</v>
+      </c>
+      <c r="T54" t="n">
+        <v>31.79211435884776</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>92</v>
+      </c>
+      <c r="C55" t="n">
+        <v>145</v>
+      </c>
+      <c r="D55" t="n">
+        <v>58</v>
+      </c>
+      <c r="E55" t="n">
+        <v>47</v>
+      </c>
+      <c r="F55" t="n">
+        <v>89</v>
+      </c>
+      <c r="G55" t="n">
+        <v>43</v>
+      </c>
+      <c r="H55" t="n">
+        <v>27</v>
+      </c>
+      <c r="I55" t="n">
+        <v>79</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21</v>
+      </c>
+      <c r="K55" t="n">
+        <v>288</v>
+      </c>
+      <c r="L55" t="n">
+        <v>42</v>
+      </c>
+      <c r="M55" t="n">
+        <v>45</v>
+      </c>
+      <c r="N55" t="n">
+        <v>26</v>
+      </c>
+      <c r="O55" t="n">
+        <v>41.97595879473862</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.916360839660157</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7.628199835991638</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6.407185628742515</v>
+      </c>
+      <c r="S55" t="n">
+        <v>19.51754385964912</v>
+      </c>
+      <c r="T55" t="n">
+        <v>27.45813468715968</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>91</v>
+      </c>
+      <c r="C56" t="n">
+        <v>148</v>
+      </c>
+      <c r="D56" t="n">
+        <v>49</v>
+      </c>
+      <c r="E56" t="n">
+        <v>43</v>
+      </c>
+      <c r="F56" t="n">
+        <v>89</v>
+      </c>
+      <c r="G56" t="n">
+        <v>52</v>
+      </c>
+      <c r="H56" t="n">
+        <v>27</v>
+      </c>
+      <c r="I56" t="n">
+        <v>84</v>
+      </c>
+      <c r="J56" t="n">
+        <v>19</v>
+      </c>
+      <c r="K56" t="n">
+        <v>283</v>
+      </c>
+      <c r="L56" t="n">
+        <v>37</v>
+      </c>
+      <c r="M56" t="n">
+        <v>42</v>
+      </c>
+      <c r="N56" t="n">
+        <v>34</v>
+      </c>
+      <c r="O56" t="n">
+        <v>41.82184859211529</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.884070553451865</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>7.247666486456878</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6.557114228456914</v>
+      </c>
+      <c r="S56" t="n">
+        <v>19.69365426695843</v>
+      </c>
+      <c r="T56" t="n">
+        <v>30.5560937479467</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>88</v>
+      </c>
+      <c r="C57" t="n">
+        <v>146</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44</v>
+      </c>
+      <c r="E57" t="n">
+        <v>42</v>
+      </c>
+      <c r="F57" t="n">
+        <v>93</v>
+      </c>
+      <c r="G57" t="n">
+        <v>59</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27</v>
+      </c>
+      <c r="I57" t="n">
+        <v>90</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18</v>
+      </c>
+      <c r="K57" t="n">
+        <v>276</v>
+      </c>
+      <c r="L57" t="n">
+        <v>41</v>
+      </c>
+      <c r="M57" t="n">
+        <v>41</v>
+      </c>
+      <c r="N57" t="n">
+        <v>33</v>
+      </c>
+      <c r="O57" t="n">
+        <v>42.32346240882993</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.882947971729239</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>6.846065489924698</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.515030060120241</v>
+      </c>
+      <c r="S57" t="n">
+        <v>20.08733624454148</v>
+      </c>
+      <c r="T57" t="n">
+        <v>33.7859326795929</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>88</v>
+      </c>
+      <c r="C58" t="n">
+        <v>145</v>
+      </c>
+      <c r="D58" t="n">
+        <v>38</v>
+      </c>
+      <c r="E58" t="n">
+        <v>41</v>
+      </c>
+      <c r="F58" t="n">
+        <v>94</v>
+      </c>
+      <c r="G58" t="n">
+        <v>66</v>
+      </c>
+      <c r="H58" t="n">
+        <v>28</v>
+      </c>
+      <c r="I58" t="n">
+        <v>106</v>
+      </c>
+      <c r="J58" t="n">
+        <v>18</v>
+      </c>
+      <c r="K58" t="n">
+        <v>261</v>
+      </c>
+      <c r="L58" t="n">
+        <v>32</v>
+      </c>
+      <c r="M58" t="n">
+        <v>41</v>
+      </c>
+      <c r="N58" t="n">
+        <v>42</v>
+      </c>
+      <c r="O58" t="n">
+        <v>41.78333151675896</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.051759575338358</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>6.407816510716697</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="S58" t="n">
+        <v>20.04357298474946</v>
+      </c>
+      <c r="T58" t="n">
+        <v>36.2167038901127</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>84</v>
+      </c>
+      <c r="C59" t="n">
+        <v>148</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37</v>
+      </c>
+      <c r="E59" t="n">
+        <v>46</v>
+      </c>
+      <c r="F59" t="n">
+        <v>90</v>
+      </c>
+      <c r="G59" t="n">
+        <v>66</v>
+      </c>
+      <c r="H59" t="n">
+        <v>28</v>
+      </c>
+      <c r="I59" t="n">
+        <v>119</v>
+      </c>
+      <c r="J59" t="n">
+        <v>17</v>
+      </c>
+      <c r="K59" t="n">
+        <v>253</v>
+      </c>
+      <c r="L59" t="n">
+        <v>29</v>
+      </c>
+      <c r="M59" t="n">
+        <v>46</v>
+      </c>
+      <c r="N59" t="n">
+        <v>35</v>
+      </c>
+      <c r="O59" t="n">
+        <v>40.95749632262837</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.660828932495025</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5.550315196860578</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6.657314629258517</v>
+      </c>
+      <c r="S59" t="n">
+        <v>17.88079470198675</v>
+      </c>
+      <c r="T59" t="n">
+        <v>36.46979817016523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
